--- a/data/pca/factorExposure/factorExposure_2009-06-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01760791629268187</v>
+        <v>0.01671908941530665</v>
       </c>
       <c r="C2">
-        <v>0.00160133946387309</v>
+        <v>-0.001145806644572287</v>
       </c>
       <c r="D2">
-        <v>-0.009016018530722668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009129729869576641</v>
+      </c>
+      <c r="E2">
+        <v>-0.001891770087793271</v>
+      </c>
+      <c r="F2">
+        <v>0.01192357363640852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09011425229557021</v>
+        <v>0.09184893408511795</v>
       </c>
       <c r="C4">
-        <v>0.01993858736124393</v>
+        <v>-0.01504776493877416</v>
       </c>
       <c r="D4">
-        <v>-0.07719376437306269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08223038546266388</v>
+      </c>
+      <c r="E4">
+        <v>-0.0271806408054594</v>
+      </c>
+      <c r="F4">
+        <v>-0.03212111829327954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7.099750135908809e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5.295750294072023e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-7.184106450710288e-05</v>
+      </c>
+      <c r="E5">
+        <v>5.606416095405672e-05</v>
+      </c>
+      <c r="F5">
+        <v>9.955480847323874e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1529883471332869</v>
+        <v>0.161362198287945</v>
       </c>
       <c r="C6">
-        <v>0.03021414532195238</v>
+        <v>-0.02935798671373141</v>
       </c>
       <c r="D6">
-        <v>0.03661484205786344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02651010621278415</v>
+      </c>
+      <c r="E6">
+        <v>-0.009288206454142928</v>
+      </c>
+      <c r="F6">
+        <v>-0.04011227071832327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06029959394224163</v>
+        <v>0.06244038678786382</v>
       </c>
       <c r="C7">
-        <v>0.001869237859967739</v>
+        <v>0.001386837283359993</v>
       </c>
       <c r="D7">
-        <v>-0.04864210203676234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05359833115034764</v>
+      </c>
+      <c r="E7">
+        <v>-0.01517102346552317</v>
+      </c>
+      <c r="F7">
+        <v>-0.04948261728430477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06133184059056869</v>
+        <v>0.05684559764597969</v>
       </c>
       <c r="C8">
-        <v>-0.01010011548355291</v>
+        <v>0.01195339800901928</v>
       </c>
       <c r="D8">
-        <v>-0.02440087265091357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0293751859337681</v>
+      </c>
+      <c r="E8">
+        <v>-0.01834038097865245</v>
+      </c>
+      <c r="F8">
+        <v>0.02802385388873655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06989304030092719</v>
+        <v>0.07138677034247184</v>
       </c>
       <c r="C9">
-        <v>0.01589666667540184</v>
+        <v>-0.01064987752924015</v>
       </c>
       <c r="D9">
-        <v>-0.07974882865721132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08556082450505663</v>
+      </c>
+      <c r="E9">
+        <v>-0.02471611119927833</v>
+      </c>
+      <c r="F9">
+        <v>-0.04898011304523321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08493729265191982</v>
+        <v>0.08684860856595468</v>
       </c>
       <c r="C10">
-        <v>0.01605501117737655</v>
+        <v>-0.02173030014276211</v>
       </c>
       <c r="D10">
-        <v>0.1673567137438959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1593745321740457</v>
+      </c>
+      <c r="E10">
+        <v>0.03423641513908648</v>
+      </c>
+      <c r="F10">
+        <v>0.0586752679888918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09126146215973592</v>
+        <v>0.0876870687691949</v>
       </c>
       <c r="C11">
-        <v>0.01717053404593439</v>
+        <v>-0.01179482479289415</v>
       </c>
       <c r="D11">
-        <v>-0.1109009919013392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117663739043367</v>
+      </c>
+      <c r="E11">
+        <v>-0.04881650385749237</v>
+      </c>
+      <c r="F11">
+        <v>-0.02547362570966559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09688903497120606</v>
+        <v>0.09062275314126142</v>
       </c>
       <c r="C12">
-        <v>0.01547205610911318</v>
+        <v>-0.009252530489299009</v>
       </c>
       <c r="D12">
-        <v>-0.1179339316699137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1323510473763877</v>
+      </c>
+      <c r="E12">
+        <v>-0.04945157063594996</v>
+      </c>
+      <c r="F12">
+        <v>-0.03214560774027309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04484864520690594</v>
+        <v>0.04349695966221064</v>
       </c>
       <c r="C13">
-        <v>0.006580421969994826</v>
+        <v>-0.002686788105707459</v>
       </c>
       <c r="D13">
-        <v>-0.04354766455418838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05386150497468411</v>
+      </c>
+      <c r="E13">
+        <v>0.0001032909734612593</v>
+      </c>
+      <c r="F13">
+        <v>-0.004973390097549095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01958855676971467</v>
+        <v>0.02346891139337029</v>
       </c>
       <c r="C14">
-        <v>0.01518557951946199</v>
+        <v>-0.01385414804003131</v>
       </c>
       <c r="D14">
-        <v>-0.03192287175816169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03243633046041344</v>
+      </c>
+      <c r="E14">
+        <v>-0.01900986318757465</v>
+      </c>
+      <c r="F14">
+        <v>-0.01193614015223397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03467137214872543</v>
+        <v>0.03422536977494982</v>
       </c>
       <c r="C15">
-        <v>0.007553023107995579</v>
+        <v>-0.005640900342729083</v>
       </c>
       <c r="D15">
-        <v>-0.04542872879767608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04685376260552796</v>
+      </c>
+      <c r="E15">
+        <v>-0.008821030107289624</v>
+      </c>
+      <c r="F15">
+        <v>-0.02963750988151346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07517930905495909</v>
+        <v>0.07252495626941773</v>
       </c>
       <c r="C16">
-        <v>0.007622055498799719</v>
+        <v>-0.001899475122327337</v>
       </c>
       <c r="D16">
-        <v>-0.1154136030503143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284543776973589</v>
+      </c>
+      <c r="E16">
+        <v>-0.06313184068592866</v>
+      </c>
+      <c r="F16">
+        <v>-0.02828283770320345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00111914408913117</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003460806041618791</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00196077637368645</v>
+      </c>
+      <c r="E17">
+        <v>-0.001468614411411075</v>
+      </c>
+      <c r="F17">
+        <v>0.002302412113770782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02423296143608683</v>
+        <v>0.04183055731753382</v>
       </c>
       <c r="C18">
-        <v>-0.001974765293582286</v>
+        <v>0.002079894990075365</v>
       </c>
       <c r="D18">
-        <v>-0.02268136161492343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01566298619585843</v>
+      </c>
+      <c r="E18">
+        <v>0.005782445503989047</v>
+      </c>
+      <c r="F18">
+        <v>0.008901413372111328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0639092751010106</v>
+        <v>0.06206717612396873</v>
       </c>
       <c r="C20">
-        <v>0.005196036236654501</v>
+        <v>-0.001162386731635839</v>
       </c>
       <c r="D20">
-        <v>-0.07230186240975647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07902635004574779</v>
+      </c>
+      <c r="E20">
+        <v>-0.05936716293206638</v>
+      </c>
+      <c r="F20">
+        <v>-0.02968165168956684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04116416771710114</v>
+        <v>0.04231337304292154</v>
       </c>
       <c r="C21">
-        <v>0.009730125731008423</v>
+        <v>-0.007041205924059232</v>
       </c>
       <c r="D21">
-        <v>-0.03234219377716843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03557832226760491</v>
+      </c>
+      <c r="E21">
+        <v>-0.0003263976885476914</v>
+      </c>
+      <c r="F21">
+        <v>0.02408043159846115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04120293886876653</v>
+        <v>0.04312436463955597</v>
       </c>
       <c r="C22">
-        <v>0.001474812303002496</v>
+        <v>-0.001161454830684925</v>
       </c>
       <c r="D22">
-        <v>-0.0008252434428163542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007069257836582615</v>
+      </c>
+      <c r="E22">
+        <v>-0.0370548718474586</v>
+      </c>
+      <c r="F22">
+        <v>0.04868615052918199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04115803018681022</v>
+        <v>0.04309402801398417</v>
       </c>
       <c r="C23">
-        <v>0.001462397243465927</v>
+        <v>-0.001152331908516209</v>
       </c>
       <c r="D23">
-        <v>-0.0008137041118832218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007054306143349571</v>
+      </c>
+      <c r="E23">
+        <v>-0.03725703201297476</v>
+      </c>
+      <c r="F23">
+        <v>0.04868387408211049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08264120056873749</v>
+        <v>0.07837320207423162</v>
       </c>
       <c r="C24">
-        <v>0.008264144195959146</v>
+        <v>-0.002709403296183355</v>
       </c>
       <c r="D24">
-        <v>-0.1152230832347133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207378847032714</v>
+      </c>
+      <c r="E24">
+        <v>-0.05073805626130138</v>
+      </c>
+      <c r="F24">
+        <v>-0.03116649805538106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08732139890807329</v>
+        <v>0.08348565644954223</v>
       </c>
       <c r="C25">
-        <v>0.01053936904198128</v>
+        <v>-0.005487020831874298</v>
       </c>
       <c r="D25">
-        <v>-0.1027105297245203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1097796492406205</v>
+      </c>
+      <c r="E25">
+        <v>-0.03387839692097066</v>
+      </c>
+      <c r="F25">
+        <v>-0.02839759287052523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05804357244467396</v>
+        <v>0.06047059927955731</v>
       </c>
       <c r="C26">
-        <v>0.01811844812086106</v>
+        <v>-0.01485729114883504</v>
       </c>
       <c r="D26">
-        <v>-0.03386100217473886</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04417526072449823</v>
+      </c>
+      <c r="E26">
+        <v>-0.03138459925704669</v>
+      </c>
+      <c r="F26">
+        <v>0.00709150042381074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1328677350921829</v>
+        <v>0.1427125210424593</v>
       </c>
       <c r="C28">
-        <v>0.01515220395352988</v>
+        <v>-0.0237192844719823</v>
       </c>
       <c r="D28">
-        <v>0.2655595848315892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2595344943835975</v>
+      </c>
+      <c r="E28">
+        <v>0.06841381989013268</v>
+      </c>
+      <c r="F28">
+        <v>-0.005094120327602434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02591839262166303</v>
+        <v>0.02850364006480397</v>
       </c>
       <c r="C29">
-        <v>0.009912530576335418</v>
+        <v>-0.00903994361726774</v>
       </c>
       <c r="D29">
-        <v>-0.02974608048220041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02997411779373144</v>
+      </c>
+      <c r="E29">
+        <v>-0.01503051590374331</v>
+      </c>
+      <c r="F29">
+        <v>0.013659628880062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05975249847722187</v>
+        <v>0.05647915237526541</v>
       </c>
       <c r="C30">
-        <v>0.007829985771510657</v>
+        <v>-0.00263113153196328</v>
       </c>
       <c r="D30">
-        <v>-0.07993244138107307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08795790508680446</v>
+      </c>
+      <c r="E30">
+        <v>-0.01489399514009589</v>
+      </c>
+      <c r="F30">
+        <v>-0.07868613763970057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05069378879232404</v>
+        <v>0.05099847890513268</v>
       </c>
       <c r="C31">
-        <v>0.01754054291683583</v>
+        <v>-0.01626852551788899</v>
       </c>
       <c r="D31">
-        <v>-0.02118593886965798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0239250429544169</v>
+      </c>
+      <c r="E31">
+        <v>-0.02885263611840548</v>
+      </c>
+      <c r="F31">
+        <v>0.0009329935664938577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04798521986710404</v>
+        <v>0.0517510613317782</v>
       </c>
       <c r="C32">
-        <v>0.002141048129445794</v>
+        <v>0.001228390460547183</v>
       </c>
       <c r="D32">
-        <v>-0.02945546182886266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03372641022370365</v>
+      </c>
+      <c r="E32">
+        <v>-0.03417670441754726</v>
+      </c>
+      <c r="F32">
+        <v>-0.002230732725699288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09073453580549143</v>
+        <v>0.08983591118457933</v>
       </c>
       <c r="C33">
-        <v>0.01355270100751908</v>
+        <v>-0.00757598515616092</v>
       </c>
       <c r="D33">
-        <v>-0.08971348271162544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1037323978627371</v>
+      </c>
+      <c r="E33">
+        <v>-0.04790909785174183</v>
+      </c>
+      <c r="F33">
+        <v>-0.04424545583055366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06932854725452087</v>
+        <v>0.06717222997909511</v>
       </c>
       <c r="C34">
-        <v>0.01562285095337401</v>
+        <v>-0.01081032129024942</v>
       </c>
       <c r="D34">
-        <v>-0.09670871918694796</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1086091214058089</v>
+      </c>
+      <c r="E34">
+        <v>-0.03675909329475451</v>
+      </c>
+      <c r="F34">
+        <v>-0.0355626903774868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02552437784260133</v>
+        <v>0.02684345154717099</v>
       </c>
       <c r="C35">
-        <v>0.003902117362784343</v>
+        <v>-0.003393067118840038</v>
       </c>
       <c r="D35">
-        <v>-0.007856930678705019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01162596898078186</v>
+      </c>
+      <c r="E35">
+        <v>-0.01401321213199466</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001074671220250192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02519187589476138</v>
+        <v>0.02875946454400561</v>
       </c>
       <c r="C36">
-        <v>0.00822675259063921</v>
+        <v>-0.007085362930866835</v>
       </c>
       <c r="D36">
-        <v>-0.03870674607330409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03962435809227498</v>
+      </c>
+      <c r="E36">
+        <v>-0.01782507537713418</v>
+      </c>
+      <c r="F36">
+        <v>-0.01485815631213598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.00188190710398267</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006141381068732106</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0029235089875422</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001862114962877181</v>
+      </c>
+      <c r="F37">
+        <v>0.001547055677439033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1111351689190736</v>
+        <v>0.09976333664408796</v>
       </c>
       <c r="C39">
-        <v>0.02306306590191049</v>
+        <v>-0.01650273712390746</v>
       </c>
       <c r="D39">
-        <v>-0.1474690970089121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.151007777142399</v>
+      </c>
+      <c r="E39">
+        <v>-0.06110409524543268</v>
+      </c>
+      <c r="F39">
+        <v>-0.02202176189943651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03885431343710563</v>
+        <v>0.04401146918737175</v>
       </c>
       <c r="C40">
-        <v>0.009444553991939997</v>
+        <v>-0.007993322845357831</v>
       </c>
       <c r="D40">
-        <v>-0.02369748589173716</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03260606044889285</v>
+      </c>
+      <c r="E40">
+        <v>-0.002668701499559693</v>
+      </c>
+      <c r="F40">
+        <v>0.01526606194121099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02462805355299192</v>
+        <v>0.02642119133431851</v>
       </c>
       <c r="C41">
-        <v>0.007408472663138385</v>
+        <v>-0.00681107459244883</v>
       </c>
       <c r="D41">
-        <v>-0.007704579930603958</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009915098217260495</v>
+      </c>
+      <c r="E41">
+        <v>-0.01125891938949238</v>
+      </c>
+      <c r="F41">
+        <v>0.007846283513969918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04177432220390288</v>
+        <v>0.03993848297382355</v>
       </c>
       <c r="C43">
-        <v>0.00855728389657873</v>
+        <v>-0.007849346188944206</v>
       </c>
       <c r="D43">
-        <v>-0.01613754984089301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01872206077804335</v>
+      </c>
+      <c r="E43">
+        <v>-0.02564789491083966</v>
+      </c>
+      <c r="F43">
+        <v>0.01636968960433112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06828646238946656</v>
+        <v>0.07766793145552019</v>
       </c>
       <c r="C44">
-        <v>0.02417059512710901</v>
+        <v>-0.02002265227680231</v>
       </c>
       <c r="D44">
-        <v>-0.09449230533755194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09558512283922829</v>
+      </c>
+      <c r="E44">
+        <v>-0.06352674071944907</v>
+      </c>
+      <c r="F44">
+        <v>-0.1675668142966092</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02138764648386101</v>
+        <v>0.02416119346627684</v>
       </c>
       <c r="C46">
-        <v>0.004400960874686628</v>
+        <v>-0.003654137482211808</v>
       </c>
       <c r="D46">
-        <v>-0.009229664727373002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01220569640529895</v>
+      </c>
+      <c r="E46">
+        <v>-0.02753376711909078</v>
+      </c>
+      <c r="F46">
+        <v>0.00542055320711206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05372350513485068</v>
+        <v>0.05302960695544551</v>
       </c>
       <c r="C47">
-        <v>0.005610026460411479</v>
+        <v>-0.004719393315013129</v>
       </c>
       <c r="D47">
-        <v>-0.007114571715944268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01095973342325838</v>
+      </c>
+      <c r="E47">
+        <v>-0.02320506815639489</v>
+      </c>
+      <c r="F47">
+        <v>0.03157735017329969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04856342604746835</v>
+        <v>0.05110779022542074</v>
       </c>
       <c r="C48">
-        <v>0.005180968707773583</v>
+        <v>-0.002504611295649227</v>
       </c>
       <c r="D48">
-        <v>-0.04691350770065497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04991824337937091</v>
+      </c>
+      <c r="E48">
+        <v>0.003152221023593548</v>
+      </c>
+      <c r="F48">
+        <v>-0.0132063377009959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.198820913238761</v>
+        <v>0.2002542531783001</v>
       </c>
       <c r="C49">
-        <v>0.02331611642920961</v>
+        <v>-0.02141628780368542</v>
       </c>
       <c r="D49">
-        <v>0.01355070455795404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004268299815790098</v>
+      </c>
+      <c r="E49">
+        <v>-0.03218852628545739</v>
+      </c>
+      <c r="F49">
+        <v>-0.04956075445303192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04912750935413469</v>
+        <v>0.05109069975296274</v>
       </c>
       <c r="C50">
-        <v>0.01319152362286255</v>
+        <v>-0.01188556629334395</v>
       </c>
       <c r="D50">
-        <v>-0.02098009868412141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02334875071767314</v>
+      </c>
+      <c r="E50">
+        <v>-0.03038170521950025</v>
+      </c>
+      <c r="F50">
+        <v>-0.009164263105555308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1551757340703276</v>
+        <v>0.1482973940951756</v>
       </c>
       <c r="C52">
-        <v>0.02143950497284262</v>
+        <v>-0.01944177300167986</v>
       </c>
       <c r="D52">
-        <v>-0.0413867329258293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04261355505796204</v>
+      </c>
+      <c r="E52">
+        <v>-0.02218649219122087</v>
+      </c>
+      <c r="F52">
+        <v>-0.04195018278003015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1743203087062737</v>
+        <v>0.1688178580063498</v>
       </c>
       <c r="C53">
-        <v>0.02249217395590499</v>
+        <v>-0.02258986404340493</v>
       </c>
       <c r="D53">
-        <v>-0.005761464094179568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00596712915850109</v>
+      </c>
+      <c r="E53">
+        <v>-0.02952507745582253</v>
+      </c>
+      <c r="F53">
+        <v>-0.07502469783631367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01768792623480588</v>
+        <v>0.01959904550338436</v>
       </c>
       <c r="C54">
-        <v>0.01227460074158737</v>
+        <v>-0.01112304702332215</v>
       </c>
       <c r="D54">
-        <v>-0.0295988526798909</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03028091960943294</v>
+      </c>
+      <c r="E54">
+        <v>-0.02126216004176478</v>
+      </c>
+      <c r="F54">
+        <v>0.002776716216863582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1182776511872063</v>
+        <v>0.1166428364059702</v>
       </c>
       <c r="C55">
-        <v>0.01979770629765533</v>
+        <v>-0.01982756498063948</v>
       </c>
       <c r="D55">
-        <v>-0.004512520882615216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008219378394183565</v>
+      </c>
+      <c r="E55">
+        <v>-0.02709687119775567</v>
+      </c>
+      <c r="F55">
+        <v>-0.04650425413099298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1807952644841123</v>
+        <v>0.175911657853591</v>
       </c>
       <c r="C56">
-        <v>0.02058364823035517</v>
+        <v>-0.02087129366120796</v>
       </c>
       <c r="D56">
-        <v>0.007367312506311791</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002734276733473825</v>
+      </c>
+      <c r="E56">
+        <v>-0.03248404038778636</v>
+      </c>
+      <c r="F56">
+        <v>-0.05543846352415283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04717818823995771</v>
+        <v>0.04578086521636707</v>
       </c>
       <c r="C58">
-        <v>0.005142424270622723</v>
+        <v>-0.0002285125264363615</v>
       </c>
       <c r="D58">
-        <v>-0.0668969261679523</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07624412847183509</v>
+      </c>
+      <c r="E58">
+        <v>-0.03453453160129445</v>
+      </c>
+      <c r="F58">
+        <v>0.03780662562220317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.15902559403805</v>
+        <v>0.1660738977782248</v>
       </c>
       <c r="C59">
-        <v>0.01684021050365447</v>
+        <v>-0.02394306801676839</v>
       </c>
       <c r="D59">
-        <v>0.2262414940077215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2177247210962441</v>
+      </c>
+      <c r="E59">
+        <v>0.04960719164158947</v>
+      </c>
+      <c r="F59">
+        <v>0.04006591153187508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2383198744469922</v>
+        <v>0.2301212189153819</v>
       </c>
       <c r="C60">
-        <v>0.004684764203573569</v>
+        <v>-0.001525680154744636</v>
       </c>
       <c r="D60">
-        <v>-0.0349852261384008</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03836257966075023</v>
+      </c>
+      <c r="E60">
+        <v>-0.003322262449171922</v>
+      </c>
+      <c r="F60">
+        <v>-0.006465048958756044</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08142786880455084</v>
+        <v>0.07446241851476242</v>
       </c>
       <c r="C61">
-        <v>0.01677628417091131</v>
+        <v>-0.01125197214278047</v>
       </c>
       <c r="D61">
-        <v>-0.1097652239543332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1159899456882618</v>
+      </c>
+      <c r="E61">
+        <v>-0.03934165067113345</v>
+      </c>
+      <c r="F61">
+        <v>-0.007875249200914447</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1729758275968925</v>
+        <v>0.1692169866052137</v>
       </c>
       <c r="C62">
-        <v>0.02434814852165021</v>
+        <v>-0.02355393370922778</v>
       </c>
       <c r="D62">
-        <v>0.0005307174827082247</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006037981694929234</v>
+      </c>
+      <c r="E62">
+        <v>-0.03468332471236964</v>
+      </c>
+      <c r="F62">
+        <v>-0.04129378851787147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04179616773899964</v>
+        <v>0.04574600298547431</v>
       </c>
       <c r="C63">
-        <v>0.005510813982752345</v>
+        <v>-0.002082535633949713</v>
       </c>
       <c r="D63">
-        <v>-0.04906522082071814</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05991632004030679</v>
+      </c>
+      <c r="E63">
+        <v>-0.02408502718700721</v>
+      </c>
+      <c r="F63">
+        <v>-0.0009022528114033214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1144804246370124</v>
+        <v>0.111324221455373</v>
       </c>
       <c r="C64">
-        <v>0.01659365482811716</v>
+        <v>-0.01331627859839272</v>
       </c>
       <c r="D64">
-        <v>-0.03382391580357193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04234207508748664</v>
+      </c>
+      <c r="E64">
+        <v>-0.02449066613939514</v>
+      </c>
+      <c r="F64">
+        <v>-0.02707001266536451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.144809944556559</v>
+        <v>0.1517986569983287</v>
       </c>
       <c r="C65">
-        <v>0.03646953781179645</v>
+        <v>-0.03621070236869736</v>
       </c>
       <c r="D65">
-        <v>0.05922416645139358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04596063032696914</v>
+      </c>
+      <c r="E65">
+        <v>-0.005495611440426015</v>
+      </c>
+      <c r="F65">
+        <v>-0.03794977977142616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1337129683837804</v>
+        <v>0.119678026323385</v>
       </c>
       <c r="C66">
-        <v>0.02152628690503715</v>
+        <v>-0.0147433984377446</v>
       </c>
       <c r="D66">
-        <v>-0.1300730908552776</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1402601398171925</v>
+      </c>
+      <c r="E66">
+        <v>-0.06520868364272686</v>
+      </c>
+      <c r="F66">
+        <v>-0.0275941953161097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06391408713788187</v>
+        <v>0.05646075353352115</v>
       </c>
       <c r="C67">
-        <v>0.006415694260233825</v>
+        <v>-0.00403189091984705</v>
       </c>
       <c r="D67">
-        <v>-0.05435909859055274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05810821210295341</v>
+      </c>
+      <c r="E67">
+        <v>-0.02136691813031891</v>
+      </c>
+      <c r="F67">
+        <v>0.0343121644197328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1063990599592056</v>
+        <v>0.1172238369247977</v>
       </c>
       <c r="C68">
-        <v>0.02527310652909532</v>
+        <v>-0.03450749129076987</v>
       </c>
       <c r="D68">
-        <v>0.263830008533863</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.260678880447058</v>
+      </c>
+      <c r="E68">
+        <v>0.0892711023781315</v>
+      </c>
+      <c r="F68">
+        <v>-0.001506812420999367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03840589268993738</v>
+        <v>0.03753954240448933</v>
       </c>
       <c r="C69">
-        <v>0.002163353682607846</v>
+        <v>-0.001292659574656948</v>
       </c>
       <c r="D69">
-        <v>-0.006877309019407361</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008443667580486092</v>
+      </c>
+      <c r="E69">
+        <v>-0.0243314723633497</v>
+      </c>
+      <c r="F69">
+        <v>0.000777150339872057</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06753074170443445</v>
+        <v>0.0670867506949565</v>
       </c>
       <c r="C70">
-        <v>-0.02423093213790526</v>
+        <v>0.02644325982806509</v>
       </c>
       <c r="D70">
-        <v>-0.0207479147204657</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02671790696430276</v>
+      </c>
+      <c r="E70">
+        <v>0.02538815993288445</v>
+      </c>
+      <c r="F70">
+        <v>0.1814587756253553</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1251379797085445</v>
+        <v>0.1371493425523481</v>
       </c>
       <c r="C71">
-        <v>0.02996152077014957</v>
+        <v>-0.0391396627791575</v>
       </c>
       <c r="D71">
-        <v>0.2804212918613486</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2703758860918526</v>
+      </c>
+      <c r="E71">
+        <v>0.09885755679850515</v>
+      </c>
+      <c r="F71">
+        <v>-0.007115056480220816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1366808644220192</v>
+        <v>0.1440490198852645</v>
       </c>
       <c r="C72">
-        <v>0.02886833004959539</v>
+        <v>-0.02933095696916186</v>
       </c>
       <c r="D72">
-        <v>-0.0006767533853681716</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003717058046401892</v>
+      </c>
+      <c r="E72">
+        <v>-0.03961774876961046</v>
+      </c>
+      <c r="F72">
+        <v>-0.02742027167297062</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2028199184588846</v>
+        <v>0.2034813545152499</v>
       </c>
       <c r="C73">
-        <v>0.01819420856639531</v>
+        <v>-0.0146093409028953</v>
       </c>
       <c r="D73">
-        <v>-0.006537788480643929</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01771036172863774</v>
+      </c>
+      <c r="E73">
+        <v>-0.06492232397618738</v>
+      </c>
+      <c r="F73">
+        <v>-0.04368159051739148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09150563640572558</v>
+        <v>0.09265989150711175</v>
       </c>
       <c r="C74">
-        <v>0.01477236845264858</v>
+        <v>-0.01423327340711496</v>
       </c>
       <c r="D74">
-        <v>-0.01471555665537159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01686734693849681</v>
+      </c>
+      <c r="E74">
+        <v>-0.0433383926634788</v>
+      </c>
+      <c r="F74">
+        <v>-0.05198694968984344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1335191563743234</v>
+        <v>0.1258216531887227</v>
       </c>
       <c r="C75">
-        <v>0.03209941784704914</v>
+        <v>-0.03028903889237217</v>
       </c>
       <c r="D75">
-        <v>-0.02306647381624708</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02943633685216175</v>
+      </c>
+      <c r="E75">
+        <v>-0.05683145825195784</v>
+      </c>
+      <c r="F75">
+        <v>-0.02135362835829417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08214125859192269</v>
+        <v>0.092097916437962</v>
       </c>
       <c r="C77">
-        <v>0.01433767715861687</v>
+        <v>-0.008822948442735892</v>
       </c>
       <c r="D77">
-        <v>-0.1133186388362119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1166975122697928</v>
+      </c>
+      <c r="E77">
+        <v>-0.04874478287640596</v>
+      </c>
+      <c r="F77">
+        <v>-0.03670643356670713</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1023133260672928</v>
+        <v>0.1021360623240809</v>
       </c>
       <c r="C78">
-        <v>0.04473039131876308</v>
+        <v>-0.04034193530952501</v>
       </c>
       <c r="D78">
-        <v>-0.1122345520296314</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1119592466943601</v>
+      </c>
+      <c r="E78">
+        <v>-0.07798818919863287</v>
+      </c>
+      <c r="F78">
+        <v>-0.05311249178929853</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1665526783959324</v>
+        <v>0.1634518352729016</v>
       </c>
       <c r="C79">
-        <v>0.02698263997067097</v>
+        <v>-0.02589665222372186</v>
       </c>
       <c r="D79">
-        <v>-0.005495532234101078</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01172027346511</v>
+      </c>
+      <c r="E79">
+        <v>-0.04398174726535716</v>
+      </c>
+      <c r="F79">
+        <v>-0.01302088912917431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08125673244103905</v>
+        <v>0.07950838626269278</v>
       </c>
       <c r="C80">
-        <v>0.002730668648822512</v>
+        <v>4.881954752744096e-05</v>
       </c>
       <c r="D80">
-        <v>-0.05161290216376024</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05296920393398664</v>
+      </c>
+      <c r="E80">
+        <v>-0.0356230263364589</v>
+      </c>
+      <c r="F80">
+        <v>0.0276342885481086</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1210415733704313</v>
+        <v>0.116086408821443</v>
       </c>
       <c r="C81">
-        <v>0.03422406314281054</v>
+        <v>-0.03378444763028905</v>
       </c>
       <c r="D81">
-        <v>-0.007603984779104934</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01208855001224179</v>
+      </c>
+      <c r="E81">
+        <v>-0.05222253520869936</v>
+      </c>
+      <c r="F81">
+        <v>-0.01734818101664816</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.166243913137493</v>
+        <v>0.1647600814070312</v>
       </c>
       <c r="C82">
-        <v>0.02761222702972047</v>
+        <v>-0.02818848515403205</v>
       </c>
       <c r="D82">
-        <v>-0.004948715275861736</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003000961410763633</v>
+      </c>
+      <c r="E82">
+        <v>-0.02733387789853672</v>
+      </c>
+      <c r="F82">
+        <v>-0.08260900731516659</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0632162619064784</v>
+        <v>0.05703008602684004</v>
       </c>
       <c r="C83">
-        <v>0.006021398690195905</v>
+        <v>-0.003736909407749591</v>
       </c>
       <c r="D83">
-        <v>-0.04277263940351399</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04610090409455493</v>
+      </c>
+      <c r="E83">
+        <v>-0.003190609154162466</v>
+      </c>
+      <c r="F83">
+        <v>0.0374152391702411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06131046267118991</v>
+        <v>0.0555441550013825</v>
       </c>
       <c r="C84">
-        <v>0.01380901678001485</v>
+        <v>-0.01107987249673154</v>
       </c>
       <c r="D84">
-        <v>-0.06906341866700275</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07249653705178592</v>
+      </c>
+      <c r="E84">
+        <v>-0.0138695868923924</v>
+      </c>
+      <c r="F84">
+        <v>-0.01513709592388515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397418028375573</v>
+        <v>0.135132826562788</v>
       </c>
       <c r="C85">
-        <v>0.03102154271746454</v>
+        <v>-0.0306585378537649</v>
       </c>
       <c r="D85">
-        <v>-0.006590510191007045</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009272090260636743</v>
+      </c>
+      <c r="E85">
+        <v>-0.03557239667622845</v>
+      </c>
+      <c r="F85">
+        <v>-0.04857416149682301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1004804872129465</v>
+        <v>0.0933467883801512</v>
       </c>
       <c r="C86">
-        <v>-0.001996928186956209</v>
+        <v>0.005141792897473572</v>
       </c>
       <c r="D86">
-        <v>-0.01679004893804822</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05216868486584962</v>
+      </c>
+      <c r="E86">
+        <v>-0.2207264590433914</v>
+      </c>
+      <c r="F86">
+        <v>0.8973189038206634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09660516898657935</v>
+        <v>0.09241304231072532</v>
       </c>
       <c r="C87">
-        <v>0.028501384098586</v>
+        <v>-0.02021580031168912</v>
       </c>
       <c r="D87">
-        <v>-0.07254849196722746</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09438895960853652</v>
+      </c>
+      <c r="E87">
+        <v>0.04911698877164582</v>
+      </c>
+      <c r="F87">
+        <v>-0.04976061279844327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06252696806401295</v>
+        <v>0.06069810697680547</v>
       </c>
       <c r="C88">
-        <v>0.005782417743008991</v>
+        <v>-0.002870210746846779</v>
       </c>
       <c r="D88">
-        <v>-0.04870711121374922</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04926241787766543</v>
+      </c>
+      <c r="E88">
+        <v>-0.02474738855471448</v>
+      </c>
+      <c r="F88">
+        <v>-0.01380685249904825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1170244426688469</v>
+        <v>0.1268737444002171</v>
       </c>
       <c r="C89">
-        <v>0.006101159503644544</v>
+        <v>-0.01454543650829722</v>
       </c>
       <c r="D89">
-        <v>0.2413203220459811</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2421053163688207</v>
+      </c>
+      <c r="E89">
+        <v>0.09148157668951749</v>
+      </c>
+      <c r="F89">
+        <v>0.00739524666684547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1374587626170677</v>
+        <v>0.1526583569601048</v>
       </c>
       <c r="C90">
-        <v>0.02637990574661595</v>
+        <v>-0.03601072700389907</v>
       </c>
       <c r="D90">
-        <v>0.2668589663614341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2675031588087778</v>
+      </c>
+      <c r="E90">
+        <v>0.1149091535440867</v>
+      </c>
+      <c r="F90">
+        <v>0.007711928795252835</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1215030031536116</v>
+        <v>0.1197950037260626</v>
       </c>
       <c r="C91">
-        <v>0.02171481145153615</v>
+        <v>-0.02196504876446046</v>
       </c>
       <c r="D91">
-        <v>0.02051994220193314</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01716461913852711</v>
+      </c>
+      <c r="E91">
+        <v>-0.0534192000265438</v>
+      </c>
+      <c r="F91">
+        <v>0.002126999039400072</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1379268452032445</v>
+        <v>0.145104250749019</v>
       </c>
       <c r="C92">
-        <v>0.01703308516932244</v>
+        <v>-0.02682605059424432</v>
       </c>
       <c r="D92">
-        <v>0.2986985021819979</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2930449050901681</v>
+      </c>
+      <c r="E92">
+        <v>0.1024131117290873</v>
+      </c>
+      <c r="F92">
+        <v>0.01747038261392131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1405974811742475</v>
+        <v>0.1538863699256339</v>
       </c>
       <c r="C93">
-        <v>0.02245414464959098</v>
+        <v>-0.03110018567789657</v>
       </c>
       <c r="D93">
-        <v>0.2659977592227705</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2635853726866585</v>
+      </c>
+      <c r="E93">
+        <v>0.07574723940831181</v>
+      </c>
+      <c r="F93">
+        <v>-0.003864431089176616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1335070082062901</v>
+        <v>0.1256981087939415</v>
       </c>
       <c r="C94">
-        <v>0.02851593131495534</v>
+        <v>-0.0262997947912084</v>
       </c>
       <c r="D94">
-        <v>-0.03770184005911345</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04094984403101322</v>
+      </c>
+      <c r="E94">
+        <v>-0.05747852947532713</v>
+      </c>
+      <c r="F94">
+        <v>-0.03150091674208717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1278856854979461</v>
+        <v>0.1301721772743343</v>
       </c>
       <c r="C95">
-        <v>0.01092009105498183</v>
+        <v>-0.005554010724166225</v>
       </c>
       <c r="D95">
-        <v>-0.08604650813252131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09695335878859819</v>
+      </c>
+      <c r="E95">
+        <v>-0.05947399678822338</v>
+      </c>
+      <c r="F95">
+        <v>-0.002718936596849841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1299591657894615</v>
+        <v>0.1231033874340738</v>
       </c>
       <c r="C96">
-        <v>-0.9858277718419755</v>
+        <v>0.9856255678082455</v>
       </c>
       <c r="D96">
-        <v>0.01936523873366311</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05128656148691654</v>
+      </c>
+      <c r="E96">
+        <v>-0.05121335409798716</v>
+      </c>
+      <c r="F96">
+        <v>-0.0422560131362581</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1945624054197908</v>
+        <v>0.1981278030252155</v>
       </c>
       <c r="C97">
-        <v>-0.002062487383946055</v>
+        <v>0.00236151288858978</v>
       </c>
       <c r="D97">
-        <v>0.02565228167785507</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02571238942984637</v>
+      </c>
+      <c r="E97">
+        <v>-0.02404328181977858</v>
+      </c>
+      <c r="F97">
+        <v>0.1250839221257349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2003796475840416</v>
+        <v>0.2061072617968381</v>
       </c>
       <c r="C98">
-        <v>0.01332663800748918</v>
+        <v>-0.009458952403304487</v>
       </c>
       <c r="D98">
-        <v>-0.01165368079926846</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01388953169422151</v>
+      </c>
+      <c r="E98">
+        <v>0.07461482556246968</v>
+      </c>
+      <c r="F98">
+        <v>0.09265487699525332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05609123932548427</v>
+        <v>0.05518620364583542</v>
       </c>
       <c r="C99">
-        <v>-0.001524560829382539</v>
+        <v>0.003645332696676971</v>
       </c>
       <c r="D99">
-        <v>-0.0315492596653727</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03900479914989821</v>
+      </c>
+      <c r="E99">
+        <v>-0.02225884745464857</v>
+      </c>
+      <c r="F99">
+        <v>-0.002973183609845244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1478648638182801</v>
+        <v>0.1330561982798248</v>
       </c>
       <c r="C100">
-        <v>-0.0369426003220179</v>
+        <v>0.04941308368937099</v>
       </c>
       <c r="D100">
-        <v>-0.392284773451498</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3582696720733765</v>
+      </c>
+      <c r="E100">
+        <v>0.8844743585074748</v>
+      </c>
+      <c r="F100">
+        <v>0.147085135182544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02588067340496044</v>
+        <v>0.02851556717640882</v>
       </c>
       <c r="C101">
-        <v>0.009918310008305106</v>
+        <v>-0.009060554499546914</v>
       </c>
       <c r="D101">
-        <v>-0.02928773521705633</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02952372084021807</v>
+      </c>
+      <c r="E101">
+        <v>-0.01456038227164315</v>
+      </c>
+      <c r="F101">
+        <v>0.01510067508777326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
